--- a/Delay Model/OutPut/pro_cost.xlsx
+++ b/Delay Model/OutPut/pro_cost.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{41FCE528-38FA-4CC4-AF1E-CDBFCC6225E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6041024B-41C6-4E2E-9546-1CA01BD8DCD3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,10 +332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -344,340 +344,110 @@
       <c r="A1">
         <v>10</v>
       </c>
-      <c r="B1">
-        <v>13.6273</v>
-      </c>
-      <c r="C1">
-        <v>11.3881</v>
-      </c>
       <c r="D1">
-        <v>8.7113999999999994</v>
+        <v>11.609963455797823</v>
       </c>
       <c r="E1">
-        <v>6.4932999999999996</v>
+        <v>6.5013183859197889</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>27.11818673300974</v>
-      </c>
-      <c r="C2">
-        <v>22.662201781291103</v>
-      </c>
       <c r="D2">
-        <v>17.335596332798211</v>
+        <v>21.145037617166665</v>
       </c>
       <c r="E2">
-        <v>12.921600163895427</v>
+        <v>12.14749978619742</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>30</v>
       </c>
-      <c r="B3">
-        <v>40.215188310003732</v>
-      </c>
-      <c r="C3">
-        <v>33.607140518896152</v>
-      </c>
       <c r="D3">
-        <v>25.707997288073688</v>
+        <v>34.381989785775879</v>
       </c>
       <c r="E3">
-        <v>19.162217185601495</v>
+        <v>15.279700489623671</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>40</v>
       </c>
-      <c r="B4">
-        <v>51.600668476608064</v>
-      </c>
-      <c r="C4">
-        <v>43.121790279692995</v>
-      </c>
       <c r="D4">
-        <v>32.986289534032686</v>
+        <v>49.449597484429084</v>
       </c>
       <c r="E4">
-        <v>24.587307876039947</v>
+        <v>20.681192778312539</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50</v>
       </c>
-      <c r="B5">
-        <v>62.186613014184466</v>
-      </c>
-      <c r="C5">
-        <v>51.968281880257585</v>
-      </c>
       <c r="D5">
-        <v>39.753469917868301</v>
+        <v>62.294101220683906</v>
       </c>
       <c r="E5">
-        <v>29.631426202182677</v>
+        <v>24.923966490079255</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>60</v>
       </c>
-      <c r="B6">
-        <v>72.413608080568707</v>
-      </c>
-      <c r="C6">
-        <v>60.514805587484283</v>
-      </c>
       <c r="D6">
-        <v>46.291187941343217</v>
+        <v>78.366747915564332</v>
       </c>
       <c r="E6">
-        <v>34.504507961926194</v>
+        <v>29.022875724300228</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>70</v>
       </c>
-      <c r="B7">
-        <v>83.189851337936986</v>
-      </c>
-      <c r="C7">
-        <v>69.520326551962626</v>
-      </c>
       <c r="D7">
-        <v>53.180018855188074</v>
+        <v>90.527354853677664</v>
       </c>
       <c r="E7">
-        <v>39.639302113597431</v>
+        <v>33.341919853208267</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>80</v>
       </c>
-      <c r="B8">
-        <v>106.74430966778912</v>
-      </c>
-      <c r="C8">
-        <v>89.204381860511575</v>
-      </c>
       <c r="D8">
-        <v>68.237462977991115</v>
+        <v>106.72917014444535</v>
       </c>
       <c r="E8">
-        <v>50.862814054570983</v>
+        <v>42.782384635737827</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>90</v>
       </c>
-      <c r="B9">
-        <v>128.63997795927193</v>
-      </c>
-      <c r="C9">
-        <v>107.50221489201711</v>
-      </c>
       <c r="D9">
-        <v>82.234507495571521</v>
+        <v>115.31486200136445</v>
       </c>
       <c r="E9">
-        <v>61.295925743393084</v>
+        <v>51.55801778768857</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>100</v>
       </c>
-      <c r="B10">
-        <v>149.79540444210133</v>
-      </c>
-      <c r="C10">
-        <v>125.18144058816452</v>
-      </c>
       <c r="D10">
-        <v>95.758344371733358</v>
+        <v>129.1541247167342</v>
       </c>
       <c r="E10">
-        <v>71.376318101450522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>110</v>
-      </c>
-      <c r="B11">
-        <v>172.0909113747546</v>
-      </c>
-      <c r="C11">
-        <v>143.81341188840364</v>
-      </c>
-      <c r="D11">
-        <v>110.01099009708729</v>
-      </c>
-      <c r="E11">
-        <v>81.999949720758636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>120</v>
-      </c>
-      <c r="B12">
-        <v>197.28935207935623</v>
-      </c>
-      <c r="C12">
-        <v>164.87131496444024</v>
-      </c>
-      <c r="D12">
-        <v>126.11936786480845</v>
-      </c>
-      <c r="E12">
-        <v>94.006806180012461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>130</v>
-      </c>
-      <c r="B13">
-        <v>220.81032836706152</v>
-      </c>
-      <c r="C13">
-        <v>184.52738990679981</v>
-      </c>
-      <c r="D13">
-        <v>141.15540822736858</v>
-      </c>
-      <c r="E13">
-        <v>105.21436419436283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>140</v>
-      </c>
-      <c r="B14">
-        <v>256.75863116395698</v>
-      </c>
-      <c r="C14">
-        <v>214.56876766184487</v>
-      </c>
-      <c r="D14">
-        <v>164.13575246172721</v>
-      </c>
-      <c r="E14">
-        <v>122.34344439007889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>150</v>
-      </c>
-      <c r="B15">
-        <v>292.09904750075628</v>
-      </c>
-      <c r="C15">
-        <v>244.10214516766808</v>
-      </c>
-      <c r="D15">
-        <v>186.72749865329808</v>
-      </c>
-      <c r="E15">
-        <v>139.18287152529564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>160</v>
-      </c>
-      <c r="B16">
-        <v>309.02529520953482</v>
-      </c>
-      <c r="C16">
-        <v>258.24711897262881</v>
-      </c>
-      <c r="D16">
-        <v>197.54778691951762</v>
-      </c>
-      <c r="E16">
-        <v>147.24809385454734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>170</v>
-      </c>
-      <c r="B17">
-        <v>352.26247766642757</v>
-      </c>
-      <c r="C17">
-        <v>294.37968797289597</v>
-      </c>
-      <c r="D17">
-        <v>225.18762689185078</v>
-      </c>
-      <c r="E17">
-        <v>167.85026720123682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>180</v>
-      </c>
-      <c r="B18">
-        <v>396.21233014973961</v>
-      </c>
-      <c r="C18">
-        <v>331.10782304478886</v>
-      </c>
-      <c r="D18">
-        <v>253.28304894340351</v>
-      </c>
-      <c r="E18">
-        <v>188.79202214388064</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>190</v>
-      </c>
-      <c r="B19">
-        <v>414.45621602456077</v>
-      </c>
-      <c r="C19">
-        <v>346.35392438042032</v>
-      </c>
-      <c r="D19">
-        <v>264.94565176347186</v>
-      </c>
-      <c r="E19">
-        <v>197.48508857310551</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>200</v>
-      </c>
-      <c r="B20">
-        <v>428.64211270695517</v>
-      </c>
-      <c r="C20">
-        <v>358.20883401099832</v>
-      </c>
-      <c r="D20">
-        <v>274.01414077883152</v>
-      </c>
-      <c r="E20">
-        <v>204.24455544679228</v>
+        <v>60.036967117524334</v>
       </c>
     </row>
   </sheetData>
